--- a/biology/Botanique/Bryopsis_plumosa/Bryopsis_plumosa.xlsx
+++ b/biology/Botanique/Bryopsis_plumosa/Bryopsis_plumosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bryopsis plumosa est une espèce d'algues vertes de la famille des Bryopsidaceae, c'est la plus commune des algues du genre Bryopsis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryopsis plumosa est une espèce d'algues vertes de la famille des Bryopsidaceae, c'est la plus commune des algues du genre Bryopsis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette algue verte a la forme de petites plumes, l'implantation des rameaux courts sur la tige se faisant essentiellement au niveau d'un plan. 
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bryopsis plumosa est une algue de l'étage infralittoral et médiolittoral. Elle peut vivre en zone semi-abritée ou battue par les vagues. Sa forme générale dépend de son milieu de vie : courte et trapue dans les zones agitées, elle devient plus élancée dans les zones plus calmes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryopsis plumosa est une algue de l'étage infralittoral et médiolittoral. Elle peut vivre en zone semi-abritée ou battue par les vagues. Sa forme générale dépend de son milieu de vie : courte et trapue dans les zones agitées, elle devient plus élancée dans les zones plus calmes.
 </t>
         </is>
       </c>
@@ -601,8 +619,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le terme "Bryopsis" est tiré du grec ancien et signifie "qui ressemble aux mousses". Quant à "plumosa", ce terme vient du latin et signifie "qui ressemble à une plume"[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme "Bryopsis" est tiré du grec ancien et signifie "qui ressemble aux mousses". Quant à "plumosa", ce terme vient du latin et signifie "qui ressemble à une plume".
 </t>
         </is>
       </c>
